--- a/inputs/targetsRandom.xlsx
+++ b/inputs/targetsRandom.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friedele\Repos\DRFM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F0F47-0865-465C-9D90-074542265F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2861710-5B1D-44E2-A89A-463F2F005FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1680" windowWidth="21600" windowHeight="11835" xr2:uid="{1A73DCAC-05F6-44F4-89EC-97D45892D8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1A73DCAC-05F6-44F4-89EC-97D45892D8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -404,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C7F47-36BB-473A-8C1D-3059C9614FE4}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +444,7 @@
         <v>140377</v>
       </c>
       <c r="C2">
-        <v>246</v>
+        <v>3587</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -460,13 +458,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>267667</v>
+        <v>28312</v>
       </c>
       <c r="C3">
-        <v>340</v>
+        <v>3587</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -475,18 +473,18 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>211833</v>
+        <v>29591</v>
       </c>
       <c r="C4">
-        <v>183</v>
+        <v>3619</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -495,18 +493,18 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>264440</v>
+        <v>21140</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>3651</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -515,18 +513,18 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1070996</v>
+        <v>25371</v>
       </c>
       <c r="C6">
-        <v>304</v>
+        <v>3631</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -535,18 +533,18 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1322133</v>
+        <v>20934</v>
       </c>
       <c r="C7">
-        <v>303</v>
+        <v>3662</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -555,18 +553,18 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1648306</v>
+        <v>22805</v>
       </c>
       <c r="C8">
-        <v>318</v>
+        <v>3717</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -575,166 +573,6 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1744781</v>
-      </c>
-      <c r="C9">
-        <v>291</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>1794464</v>
-      </c>
-      <c r="C10">
-        <v>293</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>28312</v>
-      </c>
-      <c r="C11">
-        <v>3587</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>29591</v>
-      </c>
-      <c r="C12">
-        <v>3619</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>21140</v>
-      </c>
-      <c r="C13">
-        <v>3651</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>25371</v>
-      </c>
-      <c r="C14">
-        <v>3631</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>20934</v>
-      </c>
-      <c r="C15">
-        <v>3662</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>22805</v>
-      </c>
-      <c r="C16">
-        <v>3717</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
         <v>8</v>
       </c>
     </row>
